--- a/Optimization models (Pyomo)/CORDOBA/CostoFijoAcopio.xlsx
+++ b/Optimization models (Pyomo)/CORDOBA/CostoFijoAcopio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIMAG\Desktop\PROYECTO DE QUESO COSTEÑO\FASE III\Noviembre\MODELO DE OPTIMIZACION - Pyomo\CORDOBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIMAG\Desktop\HENRY\OptimizationModel\Optimization models (Pyomo)\CORDOBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5F6E6F-456D-4980-8D95-A6D0B0D46371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65296683-9C1A-4E7C-A167-0BC27F5FF91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7743AEA-C6A3-427D-923F-E68E2EC3A312}"/>
   </bookViews>
@@ -36,15 +36,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>T</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="18">
   <si>
     <t>CostoFijoAcopio</t>
   </si>
   <si>
-    <t>J</t>
+    <t>COSTAÑERA</t>
+  </si>
+  <si>
+    <t>SABANAS</t>
+  </si>
+  <si>
+    <t>SAN JORGE</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>CAcopios</t>
   </si>
 </sst>
 </file>
@@ -406,406 +451,406 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
         <v>4300000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
         <v>4300000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
         <v>4300000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>4300000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
+      <c r="C14">
+        <v>4450000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>4300000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
+      <c r="C15">
+        <v>4450000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>4300000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
+      <c r="C16">
+        <v>4450000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>4300000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
+      <c r="C17">
+        <v>4450000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>4300000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
+      <c r="C18">
+        <v>4450000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>4300000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
+      <c r="C19">
+        <v>4450000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>4300000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
+      <c r="C20">
+        <v>4450000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>4300000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
+      <c r="C21">
+        <v>4450000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>4300000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>4450000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>4450000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>4450000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
+      <c r="C22">
+        <v>4450000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>4450000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>4450000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>4450000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C17">
-        <v>4450000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
+      <c r="C26">
+        <v>4330000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C18">
-        <v>4450000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
+      <c r="C27">
+        <v>4330000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
-        <v>4450000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
+      <c r="C28">
+        <v>4330000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C20">
-        <v>4450000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
+      <c r="C29">
+        <v>4330000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="C21">
-        <v>4450000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
+      <c r="C30">
+        <v>4330000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="C22">
-        <v>4450000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23">
+      <c r="C31">
+        <v>4330000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C23">
-        <v>4450000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
+      <c r="C32">
+        <v>4330000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C24">
-        <v>4450000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
+      <c r="C33">
+        <v>4330000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="C25">
-        <v>4450000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>4330000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>4330000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>4330000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>4330000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>4330000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>4330000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32">
-        <v>4330000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <v>8</v>
-      </c>
-      <c r="C33">
-        <v>4330000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34">
-        <v>9</v>
-      </c>
       <c r="C34">
         <v>4330000</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35">
-        <v>10</v>
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
       </c>
       <c r="C35">
         <v>4330000</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36">
-        <v>11</v>
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
       </c>
       <c r="C36">
         <v>4330000</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>3</v>
-      </c>
-      <c r="B37">
-        <v>12</v>
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
       </c>
       <c r="C37">
         <v>4330000</v>

--- a/Optimization models (Pyomo)/CORDOBA/CostoFijoAcopio.xlsx
+++ b/Optimization models (Pyomo)/CORDOBA/CostoFijoAcopio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIMAG\Desktop\HENRY\OptimizationModel\Optimization models (Pyomo)\CORDOBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65296683-9C1A-4E7C-A167-0BC27F5FF91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8206133D-51D8-4E68-9DD1-281D309DC5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7743AEA-C6A3-427D-923F-E68E2EC3A312}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="6">
   <si>
     <t>CostoFijoAcopio</t>
   </si>
@@ -48,42 +48,6 @@
   </si>
   <si>
     <t>SAN JORGE</t>
-  </si>
-  <si>
-    <t>Enero</t>
-  </si>
-  <si>
-    <t>Febrero</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Mayo</t>
-  </si>
-  <si>
-    <t>Junio</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>Septiembre</t>
-  </si>
-  <si>
-    <t>Octubre</t>
-  </si>
-  <si>
-    <t>Noviembre</t>
-  </si>
-  <si>
-    <t>Diciembre</t>
   </si>
   <si>
     <t>Tiempo</t>
@@ -444,17 +408,17 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -464,8 +428,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>4300000</v>
@@ -475,8 +439,8 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3">
         <v>4300000</v>
@@ -486,8 +450,8 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4">
         <v>4300000</v>
@@ -497,8 +461,8 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5">
         <v>4300000</v>
@@ -508,8 +472,8 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6">
         <v>4300000</v>
@@ -519,8 +483,8 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="B7">
+        <v>6</v>
       </c>
       <c r="C7">
         <v>4300000</v>
@@ -530,8 +494,8 @@
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
+      <c r="B8">
+        <v>7</v>
       </c>
       <c r="C8">
         <v>4300000</v>
@@ -541,8 +505,8 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="B9">
+        <v>8</v>
       </c>
       <c r="C9">
         <v>4300000</v>
@@ -552,8 +516,8 @@
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
+      <c r="B10">
+        <v>9</v>
       </c>
       <c r="C10">
         <v>4300000</v>
@@ -563,8 +527,8 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
+      <c r="B11">
+        <v>10</v>
       </c>
       <c r="C11">
         <v>4300000</v>
@@ -574,8 +538,8 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
+      <c r="B12">
+        <v>11</v>
       </c>
       <c r="C12">
         <v>4300000</v>
@@ -585,8 +549,8 @@
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
+      <c r="B13">
+        <v>12</v>
       </c>
       <c r="C13">
         <v>4300000</v>
@@ -596,8 +560,8 @@
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14">
         <v>4450000</v>
@@ -607,8 +571,8 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
+      <c r="B15">
+        <v>2</v>
       </c>
       <c r="C15">
         <v>4450000</v>
@@ -618,8 +582,8 @@
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
+      <c r="B16">
+        <v>3</v>
       </c>
       <c r="C16">
         <v>4450000</v>
@@ -629,8 +593,8 @@
       <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
+      <c r="B17">
+        <v>4</v>
       </c>
       <c r="C17">
         <v>4450000</v>
@@ -640,8 +604,8 @@
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
+      <c r="B18">
+        <v>5</v>
       </c>
       <c r="C18">
         <v>4450000</v>
@@ -651,8 +615,8 @@
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
+      <c r="B19">
+        <v>6</v>
       </c>
       <c r="C19">
         <v>4450000</v>
@@ -662,8 +626,8 @@
       <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
+      <c r="B20">
+        <v>7</v>
       </c>
       <c r="C20">
         <v>4450000</v>
@@ -673,8 +637,8 @@
       <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
-        <v>11</v>
+      <c r="B21">
+        <v>8</v>
       </c>
       <c r="C21">
         <v>4450000</v>
@@ -684,8 +648,8 @@
       <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
-        <v>12</v>
+      <c r="B22">
+        <v>9</v>
       </c>
       <c r="C22">
         <v>4450000</v>
@@ -695,8 +659,8 @@
       <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
+      <c r="B23">
+        <v>10</v>
       </c>
       <c r="C23">
         <v>4450000</v>
@@ -706,8 +670,8 @@
       <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
+      <c r="B24">
+        <v>11</v>
       </c>
       <c r="C24">
         <v>4450000</v>
@@ -717,8 +681,8 @@
       <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B25" t="s">
-        <v>15</v>
+      <c r="B25">
+        <v>12</v>
       </c>
       <c r="C25">
         <v>4450000</v>
@@ -728,8 +692,8 @@
       <c r="A26" t="s">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
-        <v>4</v>
+      <c r="B26">
+        <v>1</v>
       </c>
       <c r="C26">
         <v>4330000</v>
@@ -739,8 +703,8 @@
       <c r="A27" t="s">
         <v>3</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
+      <c r="B27">
+        <v>2</v>
       </c>
       <c r="C27">
         <v>4330000</v>
@@ -750,8 +714,8 @@
       <c r="A28" t="s">
         <v>3</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
+      <c r="B28">
+        <v>3</v>
       </c>
       <c r="C28">
         <v>4330000</v>
@@ -761,8 +725,8 @@
       <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
+      <c r="B29">
+        <v>4</v>
       </c>
       <c r="C29">
         <v>4330000</v>
@@ -772,8 +736,8 @@
       <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
+      <c r="B30">
+        <v>5</v>
       </c>
       <c r="C30">
         <v>4330000</v>
@@ -783,8 +747,8 @@
       <c r="A31" t="s">
         <v>3</v>
       </c>
-      <c r="B31" t="s">
-        <v>9</v>
+      <c r="B31">
+        <v>6</v>
       </c>
       <c r="C31">
         <v>4330000</v>
@@ -794,8 +758,8 @@
       <c r="A32" t="s">
         <v>3</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
+      <c r="B32">
+        <v>7</v>
       </c>
       <c r="C32">
         <v>4330000</v>
@@ -805,8 +769,8 @@
       <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B33" t="s">
-        <v>11</v>
+      <c r="B33">
+        <v>8</v>
       </c>
       <c r="C33">
         <v>4330000</v>
@@ -816,8 +780,8 @@
       <c r="A34" t="s">
         <v>3</v>
       </c>
-      <c r="B34" t="s">
-        <v>12</v>
+      <c r="B34">
+        <v>9</v>
       </c>
       <c r="C34">
         <v>4330000</v>
@@ -827,8 +791,8 @@
       <c r="A35" t="s">
         <v>3</v>
       </c>
-      <c r="B35" t="s">
-        <v>13</v>
+      <c r="B35">
+        <v>10</v>
       </c>
       <c r="C35">
         <v>4330000</v>
@@ -838,8 +802,8 @@
       <c r="A36" t="s">
         <v>3</v>
       </c>
-      <c r="B36" t="s">
-        <v>14</v>
+      <c r="B36">
+        <v>11</v>
       </c>
       <c r="C36">
         <v>4330000</v>
@@ -849,8 +813,8 @@
       <c r="A37" t="s">
         <v>3</v>
       </c>
-      <c r="B37" t="s">
-        <v>15</v>
+      <c r="B37">
+        <v>12</v>
       </c>
       <c r="C37">
         <v>4330000</v>
